--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96300</v>
+      </c>
+      <c r="F8" s="3">
         <v>104300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>107500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>109800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>94700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>112800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>119000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>116800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F9" s="3">
         <v>51400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>55100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>51900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>51600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>55100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>54400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>56600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F10" s="3">
         <v>52900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>52400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>57900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>43100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>57700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>64600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F17" s="3">
         <v>112100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>127800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>117000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>108300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>112000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>109700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-20300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-17300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,51 +1705,59 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F41" s="3">
         <v>79100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>104600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>141800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>166300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>163100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>171600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>171200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F42" s="3">
         <v>2400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2300</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2100</v>
       </c>
       <c r="H42" s="3">
         <v>2200</v>
@@ -1587,42 +1766,54 @@
         <v>2100</v>
       </c>
       <c r="J42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F43" s="3">
         <v>40000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>38200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>37100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>32100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>34000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F45" s="3">
         <v>46100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>34000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>31800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>33800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>150500</v>
+      </c>
+      <c r="F46" s="3">
         <v>167700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>186500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>215200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>232300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>234400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>248100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>245700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="F48" s="3">
         <v>54900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>54800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>40000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F49" s="3">
         <v>45900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>47200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>13700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>250100</v>
+      </c>
+      <c r="F54" s="3">
         <v>271100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>297100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>275200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>269500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>271200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>275300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>274700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,66 +2291,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F59" s="3">
         <v>115100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>135000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>133700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>121300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>112800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>117400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>122400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>123400</v>
+      </c>
+      <c r="F60" s="3">
         <v>122800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>143300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>139800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>126600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>116800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>120500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>127900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2097,51 +2382,63 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>8600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F62" s="3">
         <v>30000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>31500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F66" s="3">
         <v>152900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>174800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>153200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>141900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>131400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>131300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>146700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>377300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>375200</v>
+      </c>
+      <c r="F72" s="3">
         <v>398200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>405800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>423400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>430000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>443400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>448200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>431000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F76" s="3">
         <v>118300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>122400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>122000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>127600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>139800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>144100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>128100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,28 +3041,34 @@
         <v>3000</v>
       </c>
       <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-30700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-25500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-36400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-23800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E8" s="3">
         <v>97900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>96300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>104300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>112800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>116800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E9" s="3">
         <v>46400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>55100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>51900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>55100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E10" s="3">
         <v>51500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>43100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E17" s="3">
         <v>108400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>117500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>108300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,11 +1473,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,69 +1793,73 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E41" s="3">
         <v>61300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>166300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>163100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2100</v>
       </c>
       <c r="L42" s="3">
         <v>2100</v>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E43" s="3">
         <v>61200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E45" s="3">
         <v>38600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E46" s="3">
         <v>163300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>150500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>167700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>186500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>215200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>232300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>248100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>245700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52900</v>
+        <v>55400</v>
       </c>
       <c r="E48" s="3">
         <v>52900</v>
       </c>
       <c r="F48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="G48" s="3">
         <v>54900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E49" s="3">
         <v>43200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>47200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>264100</v>
+      </c>
+      <c r="E54" s="3">
         <v>261900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>250100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>297100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>275200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>269500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>274700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,83 +2431,92 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E59" s="3">
         <v>114200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>116800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>121300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>112800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>117400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E60" s="3">
         <v>125400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>123400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>139800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>127900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2388,57 +2531,63 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>8600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E62" s="3">
         <v>31500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E66" s="3">
         <v>156900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>152900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>174800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>153200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>141900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>131400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>146700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>382400</v>
+      </c>
+      <c r="E72" s="3">
         <v>377300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>375200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>398200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>405800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>423400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>430000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>443400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>448200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>431000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E76" s="3">
         <v>105000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>118300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>144100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1800</v>
       </c>
       <c r="L83" s="3">
         <v>1800</v>
       </c>
       <c r="M83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-700</v>
       </c>
       <c r="K94" s="3">
         <v>-700</v>
       </c>
       <c r="L94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E8" s="3">
         <v>103900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>96300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>104300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>116800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,75 +778,81 @@
         <v>44900</v>
       </c>
       <c r="E9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F9" s="3">
         <v>46400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>55100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E10" s="3">
         <v>59000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E17" s="3">
         <v>98700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>108400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>108300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,11 +1537,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E41" s="3">
         <v>75100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>79100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>141800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>166300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1841,28 +1931,28 @@
         <v>1300</v>
       </c>
       <c r="E42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F42" s="3">
         <v>2200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2100</v>
       </c>
       <c r="M42" s="3">
         <v>2100</v>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E43" s="3">
         <v>50500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,84 +2042,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E45" s="3">
         <v>37700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E46" s="3">
         <v>164500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>150500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>167700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>186500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>215200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>232300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>248100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>245700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2165,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E48" s="3">
         <v>55400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>52900</v>
       </c>
       <c r="F48" s="3">
         <v>52900</v>
       </c>
       <c r="G48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="H48" s="3">
         <v>54900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E49" s="3">
         <v>41900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E54" s="3">
         <v>264100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>261900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>250100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>297100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>275200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>269500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>274700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,84 +2568,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E59" s="3">
         <v>112000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>116800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>115100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>121300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>117400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E60" s="3">
         <v>120600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>125400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>139800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>127900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2662,7 @@
         <v>2800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2534,60 +2677,66 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>8600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E62" s="3">
         <v>28700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E66" s="3">
         <v>152100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>152900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>174800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>153200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>141900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>131300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>146700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E72" s="3">
         <v>382400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>377300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>375200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>398200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>405800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>423400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>430000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>443400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>448200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>431000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E76" s="3">
         <v>112000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>118300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>139800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>144100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,37 +3439,40 @@
         <v>2900</v>
       </c>
       <c r="E83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1800</v>
       </c>
       <c r="M83" s="3">
         <v>1800</v>
       </c>
       <c r="N83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E89" s="3">
         <v>12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-700</v>
       </c>
       <c r="L94" s="3">
         <v>-700</v>
       </c>
       <c r="M94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E8" s="3">
         <v>102200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>96300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>104300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>107500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>109800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>116800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>44900</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>44900</v>
       </c>
       <c r="F9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G9" s="3">
         <v>46400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>51400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>55100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>57300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E17" s="3">
         <v>101500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>108400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>108300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,81 +1187,87 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,11 +1600,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,81 +1715,87 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,81 +1966,85 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E41" s="3">
         <v>86600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>141800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="3">
         <v>1300</v>
       </c>
       <c r="F42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2200</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2100</v>
       </c>
       <c r="N42" s="3">
         <v>2100</v>
@@ -1963,49 +2052,55 @@
       <c r="O42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
         <v>48300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2140,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E46" s="3">
         <v>174500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>164500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>150500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>167700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>186500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>215200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>232300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>248100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>245700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E48" s="3">
         <v>52900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>52900</v>
       </c>
       <c r="G48" s="3">
         <v>52900</v>
       </c>
       <c r="H48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="I48" s="3">
         <v>54900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>54800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E49" s="3">
         <v>40600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E54" s="3">
         <v>271100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>264100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>261900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>250100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>297100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>275200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>269500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>274700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,101 +2704,110 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E59" s="3">
         <v>114800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>112000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>116800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>115100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>121300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>112800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>117400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>122400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E60" s="3">
         <v>127400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>125400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>123400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>143300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>139800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>127900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
         <v>2800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2680,63 +2822,69 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>8600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E62" s="3">
         <v>26700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E66" s="3">
         <v>156800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>152100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>156900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>152900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>174800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>153200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>141900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>131400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>131300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E72" s="3">
         <v>383600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>382400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>377300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>375200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>398200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>405800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>423400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>430000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>443400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>448200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>431000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E76" s="3">
         <v>114300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>118300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>139800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>144100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
         <v>2900</v>
       </c>
       <c r="F83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1800</v>
       </c>
       <c r="N83" s="3">
         <v>1800</v>
       </c>
       <c r="O83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>13400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-700</v>
       </c>
       <c r="M94" s="3">
         <v>-700</v>
       </c>
       <c r="N94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,40 +4333,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E102" s="3">
         <v>12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E8" s="3">
         <v>93100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>102200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>96300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>104300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>107500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>109800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>116800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>44900</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>44900</v>
       </c>
       <c r="G9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H9" s="3">
         <v>46400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>51300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>55100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>57300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E17" s="3">
         <v>150500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>108400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-12800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1632,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,87 +2053,91 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E41" s="3">
         <v>35500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1300</v>
       </c>
       <c r="F42" s="3">
         <v>1300</v>
       </c>
       <c r="G42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H42" s="3">
         <v>2200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2200</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2100</v>
       </c>
       <c r="O42" s="3">
         <v>2100</v>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E45" s="3">
         <v>31000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E46" s="3">
         <v>76800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>174500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>163300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>150500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>167700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>186500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>232300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>248100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>245700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E48" s="3">
         <v>50700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>52900</v>
       </c>
       <c r="H48" s="3">
         <v>52900</v>
       </c>
       <c r="I48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J48" s="3">
         <v>54900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>54800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E49" s="3">
         <v>31800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E54" s="3">
         <v>161300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>264100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>261900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>250100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>297100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>269500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>274700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,110 +2841,119 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E59" s="3">
         <v>59500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>112000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>116800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>121300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>117400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E60" s="3">
         <v>70800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>125400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>123400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>143300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>139800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>116800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>127900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>2800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2825,66 +2968,72 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>8600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E62" s="3">
         <v>28300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E66" s="3">
         <v>102100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>152100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>151200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>152900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>153200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>141900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>131400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>131300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>146700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>316800</v>
+      </c>
+      <c r="E72" s="3">
         <v>326300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>383600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>382400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>377300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>375200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>398200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>405800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>423400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>430000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>443400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>448200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>431000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E76" s="3">
         <v>59200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>105000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>118300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>127600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>144100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2900</v>
       </c>
       <c r="F83" s="3">
         <v>2900</v>
       </c>
       <c r="G83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1800</v>
       </c>
       <c r="O83" s="3">
         <v>1800</v>
       </c>
       <c r="P83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-700</v>
       </c>
       <c r="N94" s="3">
         <v>-700</v>
       </c>
       <c r="O94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E8" s="3">
         <v>76900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>102200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>96300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>104300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,44 +800,47 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>44900</v>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
         <v>44900</v>
       </c>
       <c r="H9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I9" s="3">
         <v>46400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>56600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,44 +850,47 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>57300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E17" s="3">
         <v>86200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>101500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>108400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,17 +1722,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,93 +2140,97 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>35100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1300</v>
       </c>
       <c r="G42" s="3">
         <v>1300</v>
       </c>
       <c r="H42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I42" s="3">
         <v>2200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2200</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2100</v>
       </c>
       <c r="P42" s="3">
         <v>2100</v>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>33800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E46" s="3">
         <v>78700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>174500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>150500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>167700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>186500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>232300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>248100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>245700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E48" s="3">
         <v>48100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>52900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>52900</v>
       </c>
       <c r="I48" s="3">
         <v>52900</v>
       </c>
       <c r="J48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K48" s="3">
         <v>54900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E49" s="3">
         <v>30900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E54" s="3">
         <v>160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>264100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>261900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>250100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>297100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>269500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,119 +2978,128 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64500</v>
+        <v>50800</v>
       </c>
       <c r="E59" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F59" s="3">
         <v>59500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>112000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>116800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>115100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>121300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>117400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E60" s="3">
         <v>77100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>123400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>139800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>116800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>120500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>127900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2800</v>
       </c>
       <c r="G61" s="3">
         <v>2800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2971,69 +3114,75 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E62" s="3">
         <v>28900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E66" s="3">
         <v>109100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>156800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>152100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>151200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>152900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>174800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>153200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>141900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>131400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>131300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>146700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>312800</v>
+      </c>
+      <c r="E72" s="3">
         <v>316800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>326300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>383600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>382400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>377300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>375200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>398200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>405800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>423400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>430000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>443400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>448200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>431000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E76" s="3">
         <v>50900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>105000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>122000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>127600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>139800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>144100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2900</v>
       </c>
       <c r="G83" s="3">
         <v>2900</v>
       </c>
       <c r="H83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1800</v>
       </c>
       <c r="P83" s="3">
         <v>1800</v>
       </c>
       <c r="Q83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-700</v>
       </c>
       <c r="O94" s="3">
         <v>-700</v>
       </c>
       <c r="P94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E8" s="3">
         <v>69200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>96300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>109800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,44 +810,47 @@
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>44900</v>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>44900</v>
       </c>
       <c r="I9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J9" s="3">
         <v>46400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,44 +863,47 @@
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>57300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E17" s="3">
         <v>73700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>101500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>108400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>108300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,17 +1786,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,99 +2227,103 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>86600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>163100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>171200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1300</v>
       </c>
       <c r="H42" s="3">
         <v>1300</v>
       </c>
       <c r="I42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J42" s="3">
         <v>2200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2200</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2100</v>
       </c>
       <c r="Q42" s="3">
         <v>2100</v>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
         <v>8000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>61200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E46" s="3">
         <v>59900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>174500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>164500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>150500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>167700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>186500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>232300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>234400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>248100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>245700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E48" s="3">
         <v>60000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>50700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>52900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>52900</v>
       </c>
       <c r="J48" s="3">
         <v>52900</v>
       </c>
       <c r="K48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="L48" s="3">
         <v>54900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>40600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>43200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E54" s="3">
         <v>153900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>264100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>261900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>250100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>297100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>269500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,128 +3115,137 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E59" s="3">
         <v>50800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>112000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>116800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>115100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>121300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>112800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>117400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>122400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E60" s="3">
         <v>62000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>127400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>123400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>139800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>126600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>116800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>120500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>127900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2800</v>
       </c>
       <c r="H61" s="3">
         <v>2800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3117,72 +3260,78 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E62" s="3">
         <v>41900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E66" s="3">
         <v>106800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>152100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>151200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>174800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>153200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>141900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>131400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>131300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>146700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E72" s="3">
         <v>312800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>316800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>326300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>383600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>382400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>377300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>375200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>398200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>405800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>423400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>430000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>443400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>448200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>431000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E76" s="3">
         <v>47100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>105000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>122400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>127600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>139800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>144100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,49 +4234,52 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2900</v>
       </c>
       <c r="H83" s="3">
         <v>2900</v>
       </c>
       <c r="I83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1800</v>
       </c>
       <c r="Q83" s="3">
         <v>1800</v>
       </c>
       <c r="R83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-700</v>
       </c>
       <c r="P94" s="3">
         <v>-700</v>
       </c>
       <c r="Q94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,49 +5071,52 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,152 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F8" s="3">
         <v>62200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>69200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>76900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>93100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>102200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>103900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>97900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>96300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>104300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>107500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>109800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>94700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>112800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>119000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>116800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,44 +826,50 @@
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>44900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>44900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>46400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>51400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>55100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>51900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>51600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>55100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>54400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>56600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,44 +885,50 @@
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>57300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>59000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>51500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>52400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>57900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>43100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>57700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>64600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>60200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>13500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F17" s="3">
         <v>67300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>73700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>86200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>150500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>101500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>98700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>108400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>117500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>112100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>127800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>117000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>108300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>112000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>109700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>117400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-57400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-21200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-20300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1345,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-54700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-57400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-21200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-20000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1592,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1510,43 +1601,49 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-12800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-57200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-57200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>15100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,29 +1910,35 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-57200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>15100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-57200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>15100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,99 +2399,107 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F41" s="3">
         <v>31600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>35100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>35500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>86600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>75100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>69300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>104600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>141800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>166300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>163100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>171600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>171200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1400</v>
       </c>
       <c r="G42" s="3">
         <v>1500</v>
       </c>
       <c r="H42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2100</v>
       </c>
       <c r="P42" s="3">
         <v>2200</v>
@@ -2329,66 +2508,78 @@
         <v>2100</v>
       </c>
       <c r="R42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="S42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>50500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>61200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>36700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>40000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>38200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>37100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>32100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>34000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>38900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>38600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,114 +2631,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>33800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>31000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>38100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>37700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>38600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>42100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>46100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>41400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>34000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>31800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>35200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>35400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>33800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F46" s="3">
         <v>66800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>59900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>78700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>76800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>174500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>164500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>163300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>150500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>167700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>186500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>215200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>232300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>234400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>248100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>245700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F48" s="3">
         <v>57600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>60000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>48100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>50700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>52900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>55400</v>
       </c>
       <c r="J48" s="3">
         <v>52900</v>
       </c>
       <c r="K48" s="3">
+        <v>55400</v>
+      </c>
+      <c r="L48" s="3">
         <v>52900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="N48" s="3">
         <v>54900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>54800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>40000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>16900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>10000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F49" s="3">
         <v>30000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>30400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>41900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>43200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>44400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>45900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>47200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2500</v>
       </c>
       <c r="K52" s="3">
         <v>2300</v>
       </c>
       <c r="L52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F54" s="3">
         <v>157800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>153900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>160000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>161300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>271100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>264100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>261900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>250100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>271100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>297100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>275200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>269500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>271200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>275300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>274700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F57" s="3">
         <v>16600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>19600</v>
       </c>
       <c r="G57" s="3">
         <v>11200</v>
       </c>
       <c r="H57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J57" s="3">
         <v>12600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,141 +3385,159 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>68800</v>
+      </c>
+      <c r="F59" s="3">
         <v>54400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>50800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>57500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>59500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>114800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>112000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>114200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>116800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>115100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>135000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>133700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>121300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>112800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>117400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>122400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F60" s="3">
         <v>71000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>62000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>77100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>70800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>127400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>120600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>125400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>123400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>122800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>143300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>139800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>126600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>116800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>120500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>127900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3263,75 +3548,87 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F62" s="3">
         <v>41100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>41900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>28900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>26700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>28700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>27800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>30000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>31500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>6600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>10700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>18800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F66" s="3">
         <v>114900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>106800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>109100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>102100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>156800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>152100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>156900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>151200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>152900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>174800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>153200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>141900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>131400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>131300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>146700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>276500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>284000</v>
+      </c>
+      <c r="F72" s="3">
         <v>307600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>312800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>316800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>326300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>383600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>382400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>377300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>375200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>398200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>405800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>423400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>430000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>443400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>448200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>431000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F76" s="3">
         <v>42900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>47100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>50900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>59200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>114300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>112000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>105000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>98900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>118300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>122400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>122000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>127600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>139800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>144100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>128100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-57200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>15100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,49 +4634,55 @@
         <v>2000</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3100</v>
       </c>
       <c r="L83" s="3">
         <v>3000</v>
       </c>
       <c r="M83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>13400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-15100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-800</v>
       </c>
       <c r="S91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-63000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-30700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-57800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-25500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-36400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ZVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E8" s="3">
         <v>61600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>102200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>104300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>109800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>119000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>116800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,44 +839,47 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3">
-        <v>44900</v>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>44900</v>
       </c>
       <c r="L9" s="3">
+        <v>44900</v>
+      </c>
+      <c r="M9" s="3">
         <v>46400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>54400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>56600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,44 +901,47 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>57300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>57900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>57700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E17" s="3">
         <v>68900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>150500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>101500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-54700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-57200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-57200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,17 +1977,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1934,11 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-57200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-57200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,117 +2487,121 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
         <v>33700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>141800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>163100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>185100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1300</v>
       </c>
       <c r="K42" s="3">
         <v>1300</v>
       </c>
       <c r="L42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M42" s="3">
         <v>2200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2200</v>
-      </c>
-      <c r="S42" s="3">
-        <v>2100</v>
       </c>
       <c r="T42" s="3">
         <v>2100</v>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E45" s="3">
         <v>23300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E46" s="3">
         <v>64500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>61600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>174500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>164500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>163300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>150500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>167700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>186500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>215200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>232300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>234400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>248100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>245700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>53100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>52900</v>
       </c>
       <c r="M48" s="3">
         <v>52900</v>
       </c>
       <c r="N48" s="3">
+        <v>52900</v>
+      </c>
+      <c r="O48" s="3">
         <v>54900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>54800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E49" s="3">
         <v>29100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E54" s="3">
         <v>148800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>157800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>153900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>261900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>250100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>297100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>269500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>271200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>275300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>274700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3525,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E59" s="3">
         <v>68200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>116800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>115100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>135000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>121300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>112800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>117400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>122400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E60" s="3">
         <v>100700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>127400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>123400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>143300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>139800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>126600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>116800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>120500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>127900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>141900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,28 +3661,28 @@
         <v>2800</v>
       </c>
       <c r="E61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2800</v>
       </c>
       <c r="K61" s="3">
         <v>2800</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3554,81 +3697,87 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E62" s="3">
         <v>34000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>31500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E66" s="3">
         <v>137500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>129000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>151200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>152900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>174800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>153200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>141900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>131400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>131300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>146700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>161600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>271900</v>
+      </c>
+      <c r="E72" s="3">
         <v>276500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>284000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>307600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>312800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>316800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>326300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>383600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>382400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>377300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>375200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>398200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>405800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>423400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>430000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>443400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>448200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>431000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>11300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>114300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>118300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>122400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>122000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>127600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>139800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>144100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>123000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-57200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
@@ -4640,49 +4839,52 @@
         <v>2000</v>
       </c>
       <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2900</v>
       </c>
       <c r="K83" s="3">
         <v>2900</v>
       </c>
       <c r="L83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1800</v>
       </c>
       <c r="T83" s="3">
         <v>1800</v>
       </c>
       <c r="U83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-15100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5067,58 +5288,61 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-700</v>
       </c>
       <c r="S94" s="3">
         <v>-700</v>
       </c>
       <c r="T94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,17 +5796,20 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5571,49 +5817,52 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20400</v>
       </c>
     </row>
